--- a/rtt_data.xlsx
+++ b/rtt_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tu/Documents/GitHub/B22_ueda_ver3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tu/Documents/GitHub/B22_Ueda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD38547F-C564-C04C-9A67-DADC816CC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BFD20-765B-6C4A-9CE3-C2BE819418A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="740" windowWidth="25500" windowHeight="16160" xr2:uid="{01206CC8-4C7C-4A40-BBFD-2ED7E8146A76}"/>
   </bookViews>
@@ -24624,15 +24624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>387349</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>245110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24662,15 +24662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158751</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>781051</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24699,16 +24699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>627332</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28448</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>970232</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24738,15 +24738,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158751</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>132706</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>247006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24775,16 +24775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>946151</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24813,16 +24813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>654051</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>143510</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>857251</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32139,8 +32139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809FAB19-33C8-C040-875E-A2A1B641D570}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158:M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
